--- a/biology/Écologie/Cartographie_de_la_végétation/Cartographie_de_la_végétation.xlsx
+++ b/biology/Écologie/Cartographie_de_la_végétation/Cartographie_de_la_végétation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cartographie_de_la_v%C3%A9g%C3%A9tation</t>
+          <t>Cartographie_de_la_végétation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux systèmes de cartographie de la végétation ont été développés depuis l'antiquité, de plus en plus fins et précis depuis l'apparition de la phytosociologie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cartographie_de_la_v%C3%A9g%C3%A9tation</t>
+          <t>Cartographie_de_la_végétation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trois grandes approches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On distingue généralement maintenant :
 les cartes de végétation potentielle (la végétation herbacée, buissonnante et arborée supposée être présente en l'absence d'activité humaine).C'est Reinhold Tuexen (1899 - 1980), cofondateur et directeur de l'Institut fédéral allemand de cartographie de la végétation qui a fondé ce concept en Europe, suivi du Pr Jean-Marie Géhu en France (Fondateur du Centre régional de phytosociologie de Bailleul, devenu Conservatoire botanique national).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cartographie_de_la_v%C3%A9g%C3%A9tation</t>
+          <t>Cartographie_de_la_végétation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces cartes sont utilisées pour les études initiales, les études d'impact, l'établissement de mesures conservatoires ou restauratoires, les évaluations environnementales, profil environnementaux locaux, les études sur les impacts du changement climatique, etc.
 Pour le sylviculteur, elles peuvent être associées à des études de stations pour une gestion forestière durable ou l'établissement d'un PSG (Plan simple de gestion).
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cartographie_de_la_v%C3%A9g%C3%A9tation</t>
+          <t>Cartographie_de_la_végétation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Méthodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cartographie de la végétation est souvent effectuée par des outils électroniques (laser télémètre, GPS). Des systèmes informatiques permettent la cartographie des arbres, bois mort, transects, canopée etc. 
 Ces cartes sont aussi utilisées pour la cartographie des corridors biologiques.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cartographie_de_la_v%C3%A9g%C3%A9tation</t>
+          <t>Cartographie_de_la_végétation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'histoire de la cartographie de la végétation française, Charles Flahault et Henri Gaussen font figure de précurseurs des cartes phytogéographiques[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'histoire de la cartographie de la végétation française, Charles Flahault et Henri Gaussen font figure de précurseurs des cartes phytogéographiques.
 </t>
         </is>
       </c>
